--- a/base.xlsx
+++ b/base.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549398D7-197E-440D-AEF0-F29DA481FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25AA376-F289-442F-8475-923A31F4701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTAX" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>DDI</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>PTAX</t>
+  </si>
+  <si>
+    <t>Fut</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +51,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF5C5F60"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,11 +100,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,4 +436,59 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AE59C6-74EA-4EF4-805D-653F84E00F00}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>99461.17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>98965.57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.8083</v>
+      </c>
+      <c r="D2">
+        <f>C2*((1+B3)^(21/252)/(1+A3*(29/360)))</f>
+        <v>4.833961820340928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>((100000/A2)-1)*(360/28)</f>
+        <v>6.9653456577218248E-2</v>
+      </c>
+      <c r="B3">
+        <f>(100000/B2)^(252/20)-1</f>
+        <v>0.13998715398869011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/base.xlsx
+++ b/base.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25AA376-F289-442F-8475-923A31F4701D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A33845-036B-4A12-AA93-0D8C51735B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTAX" sheetId="1" r:id="rId1"/>
     <sheet name="Cálculos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -39,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +64,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,13 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +131,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:ea typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Verificar</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,16 +496,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -430,19 +519,68 @@
       <c r="D1" s="1">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4.8693</v>
+      </c>
+      <c r="B2">
+        <v>4.8704000000000001</v>
+      </c>
+      <c r="C2">
+        <v>4.8494999999999999</v>
+      </c>
+      <c r="D2">
+        <v>4.8544</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GetPTAX.getPTAX">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AE59C6-74EA-4EF4-805D-653F84E00F00}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -466,25 +604,19 @@
       <c r="A2" s="2">
         <v>99461.17</v>
       </c>
-      <c r="B2" s="2">
-        <v>98965.57</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>4.8083</v>
       </c>
       <c r="D2">
         <f>C2*((1+B3)^(21/252)/(1+A3*(29/360)))</f>
-        <v>4.833961820340928</v>
+        <v>4.7814712941894832</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>((100000/A2)-1)*(360/28)</f>
         <v>6.9653456577218248E-2</v>
-      </c>
-      <c r="B3">
-        <f>(100000/B2)^(252/20)-1</f>
-        <v>0.13998715398869011</v>
       </c>
     </row>
   </sheetData>
